--- a/biology/Botanique/Ciliophryaceae/Ciliophryaceae.xlsx
+++ b/biology/Botanique/Ciliophryaceae/Ciliophryaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ciliophryaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Dictyochophyceae et de l’ordre des Rhizochromulinales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ciliophryaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Dictyochophyceae et de l’ordre des Rhizochromulinales.
 Les espèces du genre Ciliophrys vivent au sein du plancton marin littoral (notamment en mer du Nord, Méditerranée et océan Pacifique), mais également en eau douce.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ciliophrys, dérivé du latin cilium, « cil ; sourcil ; paupière », et du grec οφρύς / ophrýs, sourcil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ciliophrys, dérivé du latin cilium, « cil ; sourcil ; paupière », et du grec οφρύς / ophrýs, sourcil.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les espèces du genre Ciliophrys sont des cellules incolores qui peuvent se présenter sous deux formes :
 la forme pseudopodiale, dépourvue de flagelle ;
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 février 2022) :
 Ciliophrys Cienkowski,  1876</t>
         </is>
       </c>
